--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -268,7 +268,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -283,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -590,105 +590,105 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -277,7 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -590,31 +589,31 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -624,16 +623,16 @@
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -65,13 +65,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,24 +264,24 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,105 +589,105 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -589,7 +589,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="2"/>
       <c r="G6" s="18"/>
     </row>

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -279,7 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -589,7 +588,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +623,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -633,7 +632,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="18"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -642,25 +641,25 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -669,7 +668,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -281,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -588,7 +589,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +638,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -656,7 +657,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="17"/>

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -637,8 +637,8 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -262,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -281,7 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -589,7 +588,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +656,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="18"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="17"/>
@@ -666,7 +665,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="17"/>

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -41,10 +41,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -279,8 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -588,7 +597,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +632,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="16"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -632,34 +641,34 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -668,7 +677,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -690,5 +699,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -57,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +82,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -269,14 +275,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -287,9 +292,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -597,105 +605,105 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2.2/Лист Microsoft Excel.xlsx
+++ b/2.2/Лист Microsoft Excel.xlsx
@@ -282,7 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -298,6 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -605,78 +605,78 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -685,25 +685,25 @@
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
